--- a/data/trans_orig/IP2905_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP2905_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A423149A-0B4B-4308-B929-04C8A8E1BADF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C1AF6A78-462B-4840-8BDD-2E8CCDE3D4F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{73355DD6-53D8-47C7-865F-1514C7A143A7}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{6B9D495B-BE37-4E91-AE5C-3853D186E853}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -131,6 +131,63 @@
     <t>100%</t>
   </si>
   <si>
+    <t>5/9</t>
+  </si>
+  <si>
+    <t>55,21%</t>
+  </si>
+  <si>
+    <t>49,31%</t>
+  </si>
+  <si>
+    <t>61,52%</t>
+  </si>
+  <si>
+    <t>49,99%</t>
+  </si>
+  <si>
+    <t>44,06%</t>
+  </si>
+  <si>
+    <t>56,23%</t>
+  </si>
+  <si>
+    <t>52,65%</t>
+  </si>
+  <si>
+    <t>48,46%</t>
+  </si>
+  <si>
+    <t>57,05%</t>
+  </si>
+  <si>
+    <t>44,79%</t>
+  </si>
+  <si>
+    <t>38,48%</t>
+  </si>
+  <si>
+    <t>50,69%</t>
+  </si>
+  <si>
+    <t>50,01%</t>
+  </si>
+  <si>
+    <t>43,77%</t>
+  </si>
+  <si>
+    <t>55,94%</t>
+  </si>
+  <si>
+    <t>47,35%</t>
+  </si>
+  <si>
+    <t>42,95%</t>
+  </si>
+  <si>
+    <t>51,54%</t>
+  </si>
+  <si>
     <t>10/15</t>
   </si>
   <si>
@@ -186,63 +243,6 @@
   </si>
   <si>
     <t>55,31%</t>
-  </si>
-  <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>55,21%</t>
-  </si>
-  <si>
-    <t>49,31%</t>
-  </si>
-  <si>
-    <t>61,52%</t>
-  </si>
-  <si>
-    <t>49,99%</t>
-  </si>
-  <si>
-    <t>44,06%</t>
-  </si>
-  <si>
-    <t>56,23%</t>
-  </si>
-  <si>
-    <t>52,65%</t>
-  </si>
-  <si>
-    <t>48,46%</t>
-  </si>
-  <si>
-    <t>57,05%</t>
-  </si>
-  <si>
-    <t>44,79%</t>
-  </si>
-  <si>
-    <t>38,48%</t>
-  </si>
-  <si>
-    <t>50,69%</t>
-  </si>
-  <si>
-    <t>50,01%</t>
-  </si>
-  <si>
-    <t>43,77%</t>
-  </si>
-  <si>
-    <t>55,94%</t>
-  </si>
-  <si>
-    <t>47,35%</t>
-  </si>
-  <si>
-    <t>42,95%</t>
-  </si>
-  <si>
-    <t>51,54%</t>
   </si>
   <si>
     <t>49,68%</t>
@@ -688,7 +688,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{718606D7-5DE3-431D-B443-4B046314E3A3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54C717D0-6926-4F28-A3F7-6B904687C1EF}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -961,10 +961,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>211</v>
+        <v>144</v>
       </c>
       <c r="D7" s="7">
-        <v>182850</v>
+        <v>112412</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -976,10 +976,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>229</v>
+        <v>139</v>
       </c>
       <c r="I7" s="7">
-        <v>171176</v>
+        <v>98113</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -991,10 +991,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>440</v>
+        <v>283</v>
       </c>
       <c r="N7" s="7">
-        <v>354027</v>
+        <v>210525</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1012,10 +1012,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>260</v>
+        <v>124</v>
       </c>
       <c r="D8" s="7">
-        <v>214281</v>
+        <v>91178</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1027,10 +1027,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>224</v>
+        <v>139</v>
       </c>
       <c r="I8" s="7">
-        <v>162713</v>
+        <v>98163</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1042,10 +1042,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>484</v>
+        <v>263</v>
       </c>
       <c r="N8" s="7">
-        <v>376993</v>
+        <v>189341</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1063,10 +1063,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>471</v>
+        <v>268</v>
       </c>
       <c r="D9" s="7">
-        <v>397131</v>
+        <v>203590</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1078,10 +1078,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>453</v>
+        <v>278</v>
       </c>
       <c r="I9" s="7">
-        <v>333889</v>
+        <v>196276</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1093,10 +1093,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>924</v>
+        <v>546</v>
       </c>
       <c r="N9" s="7">
-        <v>731020</v>
+        <v>399866</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1116,10 +1116,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>144</v>
+        <v>211</v>
       </c>
       <c r="D10" s="7">
-        <v>112412</v>
+        <v>182850</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1131,10 +1131,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>139</v>
+        <v>229</v>
       </c>
       <c r="I10" s="7">
-        <v>98113</v>
+        <v>171176</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1146,10 +1146,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>283</v>
+        <v>440</v>
       </c>
       <c r="N10" s="7">
-        <v>210525</v>
+        <v>354027</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1167,10 +1167,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>124</v>
+        <v>260</v>
       </c>
       <c r="D11" s="7">
-        <v>91178</v>
+        <v>214281</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1182,10 +1182,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>139</v>
+        <v>224</v>
       </c>
       <c r="I11" s="7">
-        <v>98163</v>
+        <v>162713</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -1197,10 +1197,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>263</v>
+        <v>484</v>
       </c>
       <c r="N11" s="7">
-        <v>189341</v>
+        <v>376993</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -1218,10 +1218,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>268</v>
+        <v>471</v>
       </c>
       <c r="D12" s="7">
-        <v>203590</v>
+        <v>397131</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1233,10 +1233,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>278</v>
+        <v>453</v>
       </c>
       <c r="I12" s="7">
-        <v>196276</v>
+        <v>333889</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1248,10 +1248,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>546</v>
+        <v>924</v>
       </c>
       <c r="N12" s="7">
-        <v>399866</v>
+        <v>731020</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>

--- a/data/trans_orig/IP2905_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP2905_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C1AF6A78-462B-4840-8BDD-2E8CCDE3D4F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7C5E5388-31D3-4E62-8DB1-A297F99F3CFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{6B9D495B-BE37-4E91-AE5C-3853D186E853}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C78C803D-31BE-49DB-86F2-95363F04821B}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,9 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="87">
-  <si>
-    <t>Menores según si su única lactáncia duranto los primeros meses de vida fue leche materna en 2023 (Tasa respuesta: 95,73%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="103">
+  <si>
+    <t>Menores según si su única lactáncia durante los primeros meses de vida fue leche materna en 2023 (Tasa respuesta: 95,73%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -65,238 +65,286 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>0/4</t>
+    <t>0-2</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>45,65%</t>
+  </si>
+  <si>
+    <t>34,87%</t>
+  </si>
+  <si>
+    <t>57,96%</t>
+  </si>
+  <si>
+    <t>54,64%</t>
+  </si>
+  <si>
+    <t>43,48%</t>
+  </si>
+  <si>
+    <t>65,28%</t>
+  </si>
+  <si>
+    <t>50,3%</t>
+  </si>
+  <si>
+    <t>42,63%</t>
+  </si>
+  <si>
+    <t>58,23%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>52,75%</t>
-  </si>
-  <si>
-    <t>45,3%</t>
-  </si>
-  <si>
-    <t>59,79%</t>
-  </si>
-  <si>
-    <t>51,35%</t>
-  </si>
-  <si>
-    <t>43,12%</t>
-  </si>
-  <si>
-    <t>58,62%</t>
-  </si>
-  <si>
-    <t>52,08%</t>
-  </si>
-  <si>
-    <t>47,3%</t>
-  </si>
-  <si>
-    <t>57,24%</t>
-  </si>
-  <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>47,25%</t>
-  </si>
-  <si>
-    <t>40,21%</t>
-  </si>
-  <si>
-    <t>54,7%</t>
-  </si>
-  <si>
-    <t>48,65%</t>
-  </si>
-  <si>
-    <t>41,38%</t>
-  </si>
-  <si>
-    <t>56,88%</t>
-  </si>
-  <si>
-    <t>47,92%</t>
-  </si>
-  <si>
-    <t>42,76%</t>
-  </si>
-  <si>
-    <t>52,7%</t>
+    <t>54,35%</t>
+  </si>
+  <si>
+    <t>42,04%</t>
+  </si>
+  <si>
+    <t>65,13%</t>
+  </si>
+  <si>
+    <t>45,36%</t>
+  </si>
+  <si>
+    <t>34,72%</t>
+  </si>
+  <si>
+    <t>56,52%</t>
+  </si>
+  <si>
+    <t>49,7%</t>
+  </si>
+  <si>
+    <t>41,77%</t>
+  </si>
+  <si>
+    <t>57,37%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>55,21%</t>
-  </si>
-  <si>
-    <t>49,31%</t>
-  </si>
-  <si>
-    <t>61,52%</t>
-  </si>
-  <si>
-    <t>49,99%</t>
-  </si>
-  <si>
-    <t>44,06%</t>
-  </si>
-  <si>
-    <t>56,23%</t>
-  </si>
-  <si>
-    <t>52,65%</t>
-  </si>
-  <si>
-    <t>48,46%</t>
-  </si>
-  <si>
-    <t>57,05%</t>
-  </si>
-  <si>
-    <t>44,79%</t>
-  </si>
-  <si>
-    <t>38,48%</t>
-  </si>
-  <si>
-    <t>50,69%</t>
-  </si>
-  <si>
-    <t>50,01%</t>
-  </si>
-  <si>
-    <t>43,77%</t>
-  </si>
-  <si>
-    <t>55,94%</t>
-  </si>
-  <si>
-    <t>47,35%</t>
-  </si>
-  <si>
-    <t>42,95%</t>
-  </si>
-  <si>
-    <t>51,54%</t>
-  </si>
-  <si>
-    <t>10/15</t>
-  </si>
-  <si>
-    <t>46,04%</t>
-  </si>
-  <si>
-    <t>40,98%</t>
-  </si>
-  <si>
-    <t>51,15%</t>
-  </si>
-  <si>
-    <t>51,27%</t>
-  </si>
-  <si>
-    <t>46,46%</t>
-  </si>
-  <si>
-    <t>55,97%</t>
-  </si>
-  <si>
-    <t>48,43%</t>
-  </si>
-  <si>
-    <t>44,69%</t>
-  </si>
-  <si>
-    <t>52,01%</t>
-  </si>
-  <si>
-    <t>53,96%</t>
-  </si>
-  <si>
-    <t>48,85%</t>
-  </si>
-  <si>
-    <t>59,02%</t>
-  </si>
-  <si>
-    <t>48,73%</t>
-  </si>
-  <si>
-    <t>44,03%</t>
-  </si>
-  <si>
-    <t>53,54%</t>
-  </si>
-  <si>
-    <t>51,57%</t>
-  </si>
-  <si>
-    <t>47,99%</t>
-  </si>
-  <si>
-    <t>55,31%</t>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>46,63%</t>
+  </si>
+  <si>
+    <t>40,62%</t>
+  </si>
+  <si>
+    <t>52,57%</t>
+  </si>
+  <si>
+    <t>47,85%</t>
+  </si>
+  <si>
+    <t>41,55%</t>
+  </si>
+  <si>
+    <t>47,21%</t>
+  </si>
+  <si>
+    <t>42,91%</t>
+  </si>
+  <si>
+    <t>51,48%</t>
+  </si>
+  <si>
+    <t>53,37%</t>
+  </si>
+  <si>
+    <t>47,43%</t>
+  </si>
+  <si>
+    <t>59,38%</t>
+  </si>
+  <si>
+    <t>52,15%</t>
+  </si>
+  <si>
+    <t>58,45%</t>
+  </si>
+  <si>
+    <t>52,79%</t>
+  </si>
+  <si>
+    <t>48,52%</t>
+  </si>
+  <si>
+    <t>57,09%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>52,1%</t>
+  </si>
+  <si>
+    <t>45,68%</t>
+  </si>
+  <si>
+    <t>58,3%</t>
+  </si>
+  <si>
+    <t>50,74%</t>
+  </si>
+  <si>
+    <t>44,25%</t>
+  </si>
+  <si>
+    <t>57,2%</t>
+  </si>
+  <si>
+    <t>51,47%</t>
+  </si>
+  <si>
+    <t>46,49%</t>
+  </si>
+  <si>
+    <t>55,81%</t>
+  </si>
+  <si>
+    <t>47,9%</t>
+  </si>
+  <si>
+    <t>41,7%</t>
+  </si>
+  <si>
+    <t>54,32%</t>
+  </si>
+  <si>
+    <t>49,26%</t>
+  </si>
+  <si>
+    <t>42,8%</t>
+  </si>
+  <si>
+    <t>55,75%</t>
+  </si>
+  <si>
+    <t>48,53%</t>
+  </si>
+  <si>
+    <t>44,19%</t>
+  </si>
+  <si>
+    <t>53,51%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>52,04%</t>
+  </si>
+  <si>
+    <t>45,69%</t>
+  </si>
+  <si>
+    <t>58,41%</t>
+  </si>
+  <si>
+    <t>47,73%</t>
+  </si>
+  <si>
+    <t>53,45%</t>
+  </si>
+  <si>
+    <t>50,05%</t>
+  </si>
+  <si>
+    <t>46,03%</t>
+  </si>
+  <si>
+    <t>54,21%</t>
+  </si>
+  <si>
+    <t>47,96%</t>
+  </si>
+  <si>
+    <t>41,59%</t>
+  </si>
+  <si>
+    <t>54,31%</t>
+  </si>
+  <si>
+    <t>52,27%</t>
+  </si>
+  <si>
+    <t>46,55%</t>
+  </si>
+  <si>
+    <t>49,95%</t>
+  </si>
+  <si>
+    <t>45,79%</t>
+  </si>
+  <si>
+    <t>53,97%</t>
+  </si>
+  <si>
+    <t>50,32%</t>
+  </si>
+  <si>
+    <t>46,73%</t>
+  </si>
+  <si>
+    <t>54,07%</t>
+  </si>
+  <si>
+    <t>49,12%</t>
+  </si>
+  <si>
+    <t>45,86%</t>
+  </si>
+  <si>
+    <t>52,66%</t>
+  </si>
+  <si>
+    <t>49,76%</t>
+  </si>
+  <si>
+    <t>47,38%</t>
+  </si>
+  <si>
+    <t>52,6%</t>
   </si>
   <si>
     <t>49,68%</t>
   </si>
   <si>
-    <t>46,01%</t>
-  </si>
-  <si>
-    <t>53,16%</t>
+    <t>45,93%</t>
+  </si>
+  <si>
+    <t>53,27%</t>
   </si>
   <si>
     <t>50,88%</t>
   </si>
   <si>
-    <t>47,24%</t>
-  </si>
-  <si>
-    <t>54,33%</t>
+    <t>47,34%</t>
+  </si>
+  <si>
+    <t>54,14%</t>
   </si>
   <si>
     <t>50,24%</t>
   </si>
   <si>
-    <t>47,94%</t>
-  </si>
-  <si>
-    <t>52,8%</t>
-  </si>
-  <si>
-    <t>50,32%</t>
-  </si>
-  <si>
-    <t>46,84%</t>
-  </si>
-  <si>
-    <t>53,99%</t>
-  </si>
-  <si>
-    <t>49,12%</t>
-  </si>
-  <si>
-    <t>45,67%</t>
-  </si>
-  <si>
-    <t>52,76%</t>
-  </si>
-  <si>
-    <t>49,76%</t>
-  </si>
-  <si>
-    <t>47,2%</t>
-  </si>
-  <si>
-    <t>52,06%</t>
+    <t>47,4%</t>
+  </si>
+  <si>
+    <t>52,62%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
   </si>
 </sst>
 </file>
@@ -307,7 +355,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -403,39 +451,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -487,7 +535,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -598,13 +646,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -613,6 +654,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -677,19 +725,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54C717D0-6926-4F28-A3F7-6B904687C1EF}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C576EECB-2404-45D3-B55B-CEFAB8324E67}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -806,10 +874,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>102</v>
+        <v>37</v>
       </c>
       <c r="D4" s="7">
-        <v>54345</v>
+        <v>19901</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -821,10 +889,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>90</v>
+        <v>46</v>
       </c>
       <c r="I4" s="7">
-        <v>47885</v>
+        <v>25585</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -836,10 +904,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>192</v>
+        <v>83</v>
       </c>
       <c r="N4" s="7">
-        <v>102230</v>
+        <v>45486</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -857,10 +925,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>91</v>
+        <v>45</v>
       </c>
       <c r="D5" s="7">
-        <v>48688</v>
+        <v>23697</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -872,10 +940,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>85</v>
+        <v>39</v>
       </c>
       <c r="I5" s="7">
-        <v>45376</v>
+        <v>21241</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -887,10 +955,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>176</v>
+        <v>84</v>
       </c>
       <c r="N5" s="7">
-        <v>94064</v>
+        <v>44938</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -908,10 +976,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>193</v>
+        <v>82</v>
       </c>
       <c r="D6" s="7">
-        <v>103033</v>
+        <v>43598</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -923,10 +991,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>175</v>
+        <v>85</v>
       </c>
       <c r="I6" s="7">
-        <v>93261</v>
+        <v>46826</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -938,10 +1006,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>368</v>
+        <v>167</v>
       </c>
       <c r="N6" s="7">
-        <v>196294</v>
+        <v>90424</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -961,10 +1029,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="D7" s="7">
-        <v>112412</v>
+        <v>81057</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -976,10 +1044,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="I7" s="7">
-        <v>98113</v>
+        <v>75774</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -988,22 +1056,22 @@
         <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M7" s="7">
+        <v>247</v>
+      </c>
+      <c r="N7" s="7">
+        <v>156832</v>
+      </c>
+      <c r="O7" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="M7" s="7">
-        <v>283</v>
-      </c>
-      <c r="N7" s="7">
-        <v>210525</v>
-      </c>
-      <c r="O7" s="7" t="s">
+      <c r="P7" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1012,49 +1080,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="D8" s="7">
-        <v>91178</v>
+        <v>92776</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="H8" s="7">
+        <v>137</v>
+      </c>
+      <c r="I8" s="7">
+        <v>82572</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="H8" s="7">
-        <v>139</v>
-      </c>
-      <c r="I8" s="7">
-        <v>98163</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="K8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="M8" s="7">
+        <v>283</v>
+      </c>
+      <c r="N8" s="7">
+        <v>175348</v>
+      </c>
+      <c r="O8" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="L8" s="7" t="s">
+      <c r="P8" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="M8" s="7">
-        <v>263</v>
-      </c>
-      <c r="N8" s="7">
-        <v>189341</v>
-      </c>
-      <c r="O8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1063,10 +1131,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="D9" s="7">
-        <v>203590</v>
+        <v>173833</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1078,10 +1146,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>278</v>
+        <v>257</v>
       </c>
       <c r="I9" s="7">
-        <v>196276</v>
+        <v>158346</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1093,10 +1161,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>546</v>
+        <v>530</v>
       </c>
       <c r="N9" s="7">
-        <v>399866</v>
+        <v>332180</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1110,55 +1178,55 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>211</v>
+        <v>133</v>
       </c>
       <c r="D10" s="7">
-        <v>182850</v>
+        <v>105485</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="H10" s="7">
+        <v>121</v>
+      </c>
+      <c r="I10" s="7">
+        <v>88568</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="H10" s="7">
-        <v>229</v>
-      </c>
-      <c r="I10" s="7">
-        <v>171176</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>254</v>
+      </c>
+      <c r="N10" s="7">
+        <v>194053</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="M10" s="7">
-        <v>440</v>
-      </c>
-      <c r="N10" s="7">
-        <v>354027</v>
-      </c>
-      <c r="O10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1167,49 +1235,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>260</v>
+        <v>110</v>
       </c>
       <c r="D11" s="7">
-        <v>214281</v>
+        <v>96993</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="H11" s="7">
+        <v>110</v>
+      </c>
+      <c r="I11" s="7">
+        <v>85972</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="H11" s="7">
-        <v>224</v>
-      </c>
-      <c r="I11" s="7">
-        <v>162713</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>220</v>
+      </c>
+      <c r="N11" s="7">
+        <v>182965</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="M11" s="7">
-        <v>484</v>
-      </c>
-      <c r="N11" s="7">
-        <v>376993</v>
-      </c>
-      <c r="O11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1218,10 +1286,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>471</v>
+        <v>243</v>
       </c>
       <c r="D12" s="7">
-        <v>397131</v>
+        <v>202478</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1233,10 +1301,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>453</v>
+        <v>231</v>
       </c>
       <c r="I12" s="7">
-        <v>333889</v>
+        <v>174540</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1248,10 +1316,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>924</v>
+        <v>474</v>
       </c>
       <c r="N12" s="7">
-        <v>731020</v>
+        <v>377018</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1265,55 +1333,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>457</v>
+        <v>178</v>
       </c>
       <c r="D13" s="7">
-        <v>349607</v>
+        <v>147704</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="H13" s="7">
+        <v>161</v>
+      </c>
+      <c r="I13" s="7">
+        <v>116323</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="H13" s="7">
-        <v>458</v>
-      </c>
-      <c r="I13" s="7">
-        <v>317174</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="K13" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>339</v>
+      </c>
+      <c r="N13" s="7">
+        <v>264028</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="L13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="M13" s="7">
-        <v>915</v>
-      </c>
-      <c r="N13" s="7">
-        <v>666781</v>
-      </c>
-      <c r="O13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1322,49 +1390,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>475</v>
+        <v>156</v>
       </c>
       <c r="D14" s="7">
-        <v>354147</v>
+        <v>136141</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="H14" s="7">
+        <v>172</v>
+      </c>
+      <c r="I14" s="7">
+        <v>127390</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="H14" s="7">
-        <v>448</v>
-      </c>
-      <c r="I14" s="7">
-        <v>306252</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="L14" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M14" s="7">
+        <v>328</v>
+      </c>
+      <c r="N14" s="7">
+        <v>263530</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="M14" s="7">
-        <v>923</v>
-      </c>
-      <c r="N14" s="7">
-        <v>660399</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1373,55 +1441,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>334</v>
+      </c>
+      <c r="D15" s="7">
+        <v>283845</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
+        <v>333</v>
+      </c>
+      <c r="I15" s="7">
+        <v>243713</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15" s="7">
+        <v>667</v>
+      </c>
+      <c r="N15" s="7">
+        <v>527558</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>475</v>
+      </c>
+      <c r="D16" s="7">
+        <v>354147</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="H16" s="7">
+        <v>448</v>
+      </c>
+      <c r="I16" s="7">
+        <v>306252</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="M16" s="7">
+        <v>923</v>
+      </c>
+      <c r="N16" s="7">
+        <v>660399</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="7">
+        <v>457</v>
+      </c>
+      <c r="D17" s="7">
+        <v>349607</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="H17" s="7">
+        <v>458</v>
+      </c>
+      <c r="I17" s="7">
+        <v>317174</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="M17" s="7">
+        <v>915</v>
+      </c>
+      <c r="N17" s="7">
+        <v>666781</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>932</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>703754</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>906</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>623426</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M18" s="7">
         <v>1838</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>1327180</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>30</v>
+      <c r="O18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>

--- a/data/trans_orig/IP2905_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP2905_2023-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7C5E5388-31D3-4E62-8DB1-A297F99F3CFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2A95446E-4D26-4C88-8FF0-E252EBB10613}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C78C803D-31BE-49DB-86F2-95363F04821B}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{69F0A55E-5797-441D-82B5-C799B87F28B3}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,9 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="103">
-  <si>
-    <t>Menores según si su única lactáncia durante los primeros meses de vida fue leche materna en 2023 (Tasa respuesta: 95,73%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="107">
+  <si>
+    <t>Menores según si su única lactancia durante los primeros meses de vida fue leche materna en 2023 (Tasa respuesta: 95,73%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -74,28 +74,28 @@
     <t>45,65%</t>
   </si>
   <si>
-    <t>34,87%</t>
-  </si>
-  <si>
-    <t>57,96%</t>
+    <t>34,48%</t>
+  </si>
+  <si>
+    <t>57,34%</t>
   </si>
   <si>
     <t>54,64%</t>
   </si>
   <si>
-    <t>43,48%</t>
-  </si>
-  <si>
-    <t>65,28%</t>
+    <t>43,87%</t>
+  </si>
+  <si>
+    <t>65,78%</t>
   </si>
   <si>
     <t>50,3%</t>
   </si>
   <si>
-    <t>42,63%</t>
-  </si>
-  <si>
-    <t>58,23%</t>
+    <t>42,53%</t>
+  </si>
+  <si>
+    <t>58,11%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,28 +104,28 @@
     <t>54,35%</t>
   </si>
   <si>
-    <t>42,04%</t>
-  </si>
-  <si>
-    <t>65,13%</t>
+    <t>42,66%</t>
+  </si>
+  <si>
+    <t>65,52%</t>
   </si>
   <si>
     <t>45,36%</t>
   </si>
   <si>
-    <t>34,72%</t>
-  </si>
-  <si>
-    <t>56,52%</t>
+    <t>34,22%</t>
+  </si>
+  <si>
+    <t>56,13%</t>
   </si>
   <si>
     <t>49,7%</t>
   </si>
   <si>
-    <t>41,77%</t>
-  </si>
-  <si>
-    <t>57,37%</t>
+    <t>41,89%</t>
+  </si>
+  <si>
+    <t>57,47%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,49 +137,55 @@
     <t>46,63%</t>
   </si>
   <si>
-    <t>40,62%</t>
-  </si>
-  <si>
-    <t>52,57%</t>
+    <t>40,5%</t>
+  </si>
+  <si>
+    <t>52,67%</t>
   </si>
   <si>
     <t>47,85%</t>
   </si>
   <si>
-    <t>41,55%</t>
+    <t>41,35%</t>
+  </si>
+  <si>
+    <t>53,94%</t>
   </si>
   <si>
     <t>47,21%</t>
   </si>
   <si>
-    <t>42,91%</t>
-  </si>
-  <si>
-    <t>51,48%</t>
+    <t>42,99%</t>
+  </si>
+  <si>
+    <t>51,42%</t>
   </si>
   <si>
     <t>53,37%</t>
   </si>
   <si>
-    <t>47,43%</t>
-  </si>
-  <si>
-    <t>59,38%</t>
+    <t>47,33%</t>
+  </si>
+  <si>
+    <t>59,5%</t>
   </si>
   <si>
     <t>52,15%</t>
   </si>
   <si>
-    <t>58,45%</t>
+    <t>46,06%</t>
+  </si>
+  <si>
+    <t>58,65%</t>
   </si>
   <si>
     <t>52,79%</t>
   </si>
   <si>
-    <t>48,52%</t>
-  </si>
-  <si>
-    <t>57,09%</t>
+    <t>48,58%</t>
+  </si>
+  <si>
+    <t>57,01%</t>
   </si>
   <si>
     <t>8-11</t>
@@ -188,10 +194,10 @@
     <t>52,1%</t>
   </si>
   <si>
-    <t>45,68%</t>
-  </si>
-  <si>
-    <t>58,3%</t>
+    <t>45,41%</t>
+  </si>
+  <si>
+    <t>58,39%</t>
   </si>
   <si>
     <t>50,74%</t>
@@ -200,31 +206,31 @@
     <t>44,25%</t>
   </si>
   <si>
-    <t>57,2%</t>
+    <t>57,67%</t>
   </si>
   <si>
     <t>51,47%</t>
   </si>
   <si>
-    <t>46,49%</t>
-  </si>
-  <si>
-    <t>55,81%</t>
+    <t>46,98%</t>
+  </si>
+  <si>
+    <t>55,76%</t>
   </si>
   <si>
     <t>47,9%</t>
   </si>
   <si>
-    <t>41,7%</t>
-  </si>
-  <si>
-    <t>54,32%</t>
+    <t>41,61%</t>
+  </si>
+  <si>
+    <t>54,59%</t>
   </si>
   <si>
     <t>49,26%</t>
   </si>
   <si>
-    <t>42,8%</t>
+    <t>42,33%</t>
   </si>
   <si>
     <t>55,75%</t>
@@ -233,10 +239,10 @@
     <t>48,53%</t>
   </si>
   <si>
-    <t>44,19%</t>
-  </si>
-  <si>
-    <t>53,51%</t>
+    <t>44,24%</t>
+  </si>
+  <si>
+    <t>53,02%</t>
   </si>
   <si>
     <t>12-15</t>
@@ -245,100 +251,106 @@
     <t>52,04%</t>
   </si>
   <si>
-    <t>45,69%</t>
-  </si>
-  <si>
-    <t>58,41%</t>
+    <t>46,18%</t>
+  </si>
+  <si>
+    <t>58,95%</t>
   </si>
   <si>
     <t>47,73%</t>
   </si>
   <si>
-    <t>53,45%</t>
+    <t>42,06%</t>
+  </si>
+  <si>
+    <t>53,3%</t>
   </si>
   <si>
     <t>50,05%</t>
   </si>
   <si>
+    <t>45,95%</t>
+  </si>
+  <si>
+    <t>54,62%</t>
+  </si>
+  <si>
+    <t>47,96%</t>
+  </si>
+  <si>
+    <t>41,05%</t>
+  </si>
+  <si>
+    <t>53,82%</t>
+  </si>
+  <si>
+    <t>52,27%</t>
+  </si>
+  <si>
+    <t>46,7%</t>
+  </si>
+  <si>
+    <t>57,94%</t>
+  </si>
+  <si>
+    <t>49,95%</t>
+  </si>
+  <si>
+    <t>45,38%</t>
+  </si>
+  <si>
+    <t>54,05%</t>
+  </si>
+  <si>
+    <t>50,32%</t>
+  </si>
+  <si>
+    <t>46,83%</t>
+  </si>
+  <si>
+    <t>53,97%</t>
+  </si>
+  <si>
+    <t>49,12%</t>
+  </si>
+  <si>
+    <t>45,64%</t>
+  </si>
+  <si>
+    <t>52,24%</t>
+  </si>
+  <si>
+    <t>49,76%</t>
+  </si>
+  <si>
+    <t>47,38%</t>
+  </si>
+  <si>
+    <t>52,19%</t>
+  </si>
+  <si>
+    <t>49,68%</t>
+  </si>
+  <si>
     <t>46,03%</t>
   </si>
   <si>
-    <t>54,21%</t>
-  </si>
-  <si>
-    <t>47,96%</t>
-  </si>
-  <si>
-    <t>41,59%</t>
-  </si>
-  <si>
-    <t>54,31%</t>
-  </si>
-  <si>
-    <t>52,27%</t>
-  </si>
-  <si>
-    <t>46,55%</t>
-  </si>
-  <si>
-    <t>49,95%</t>
-  </si>
-  <si>
-    <t>45,79%</t>
-  </si>
-  <si>
-    <t>53,97%</t>
-  </si>
-  <si>
-    <t>50,32%</t>
-  </si>
-  <si>
-    <t>46,73%</t>
-  </si>
-  <si>
-    <t>54,07%</t>
-  </si>
-  <si>
-    <t>49,12%</t>
-  </si>
-  <si>
-    <t>45,86%</t>
-  </si>
-  <si>
-    <t>52,66%</t>
-  </si>
-  <si>
-    <t>49,76%</t>
-  </si>
-  <si>
-    <t>47,38%</t>
-  </si>
-  <si>
-    <t>52,6%</t>
-  </si>
-  <si>
-    <t>49,68%</t>
-  </si>
-  <si>
-    <t>45,93%</t>
-  </si>
-  <si>
-    <t>53,27%</t>
+    <t>53,17%</t>
   </si>
   <si>
     <t>50,88%</t>
   </si>
   <si>
-    <t>47,34%</t>
-  </si>
-  <si>
-    <t>54,14%</t>
+    <t>47,76%</t>
+  </si>
+  <si>
+    <t>54,36%</t>
   </si>
   <si>
     <t>50,24%</t>
   </si>
   <si>
-    <t>47,4%</t>
+    <t>47,81%</t>
   </si>
   <si>
     <t>52,62%</t>
@@ -756,7 +768,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C576EECB-2404-45D3-B55B-CEFAB8324E67}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{887C1E17-99CD-40AF-884E-385F386FECE4}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1056,7 +1068,7 @@
         <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="M7" s="7">
         <v>247</v>
@@ -1065,13 +1077,13 @@
         <v>156832</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1086,13 +1098,13 @@
         <v>92776</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>137</v>
@@ -1101,13 +1113,13 @@
         <v>82572</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>283</v>
@@ -1116,13 +1128,13 @@
         <v>175348</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1178,7 +1190,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1190,13 +1202,13 @@
         <v>105485</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>121</v>
@@ -1205,13 +1217,13 @@
         <v>88568</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>254</v>
@@ -1220,13 +1232,13 @@
         <v>194053</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1241,13 +1253,13 @@
         <v>96993</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>110</v>
@@ -1256,13 +1268,13 @@
         <v>85972</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>220</v>
@@ -1271,13 +1283,13 @@
         <v>182965</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1333,7 +1345,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1345,13 +1357,13 @@
         <v>147704</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>161</v>
@@ -1360,13 +1372,13 @@
         <v>116323</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>22</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>339</v>
@@ -1375,13 +1387,13 @@
         <v>264028</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1396,13 +1408,13 @@
         <v>136141</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>172</v>
@@ -1411,13 +1423,13 @@
         <v>127390</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>328</v>
@@ -1426,13 +1438,13 @@
         <v>263530</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1500,13 +1512,13 @@
         <v>354147</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="H16" s="7">
         <v>448</v>
@@ -1515,13 +1527,13 @@
         <v>306252</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="M16" s="7">
         <v>923</v>
@@ -1530,13 +1542,13 @@
         <v>660399</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1551,13 +1563,13 @@
         <v>349607</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="H17" s="7">
         <v>458</v>
@@ -1566,13 +1578,13 @@
         <v>317174</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="M17" s="7">
         <v>915</v>
@@ -1581,13 +1593,13 @@
         <v>666781</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1643,7 +1655,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP2905_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP2905_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2A95446E-4D26-4C88-8FF0-E252EBB10613}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D3ABAA61-7B00-4A83-96DF-F48819209024}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{69F0A55E-5797-441D-82B5-C799B87F28B3}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{8D8B1E21-2885-4F86-8398-B177E35A581B}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -41,10 +41,10 @@
     <t>Menores según si su única lactancia durante los primeros meses de vida fue leche materna en 2023 (Tasa respuesta: 95,73%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -71,61 +71,61 @@
     <t>Sí</t>
   </si>
   <si>
-    <t>45,65%</t>
-  </si>
-  <si>
-    <t>34,48%</t>
-  </si>
-  <si>
-    <t>57,34%</t>
-  </si>
-  <si>
-    <t>54,64%</t>
-  </si>
-  <si>
-    <t>43,87%</t>
+    <t>54,7%</t>
+  </si>
+  <si>
+    <t>44,44%</t>
   </si>
   <si>
     <t>65,78%</t>
   </si>
   <si>
-    <t>50,3%</t>
-  </si>
-  <si>
-    <t>42,53%</t>
-  </si>
-  <si>
-    <t>58,11%</t>
+    <t>44,93%</t>
+  </si>
+  <si>
+    <t>33,65%</t>
+  </si>
+  <si>
+    <t>56,27%</t>
+  </si>
+  <si>
+    <t>49,88%</t>
+  </si>
+  <si>
+    <t>42,02%</t>
+  </si>
+  <si>
+    <t>58,4%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>54,35%</t>
-  </si>
-  <si>
-    <t>42,66%</t>
-  </si>
-  <si>
-    <t>65,52%</t>
-  </si>
-  <si>
-    <t>45,36%</t>
+    <t>45,3%</t>
   </si>
   <si>
     <t>34,22%</t>
   </si>
   <si>
-    <t>56,13%</t>
-  </si>
-  <si>
-    <t>49,7%</t>
-  </si>
-  <si>
-    <t>41,89%</t>
-  </si>
-  <si>
-    <t>57,47%</t>
+    <t>55,56%</t>
+  </si>
+  <si>
+    <t>55,07%</t>
+  </si>
+  <si>
+    <t>43,73%</t>
+  </si>
+  <si>
+    <t>66,35%</t>
+  </si>
+  <si>
+    <t>50,12%</t>
+  </si>
+  <si>
+    <t>41,6%</t>
+  </si>
+  <si>
+    <t>57,98%</t>
   </si>
   <si>
     <t>100%</t>
@@ -134,226 +134,226 @@
     <t>3-7</t>
   </si>
   <si>
-    <t>46,63%</t>
-  </si>
-  <si>
-    <t>40,5%</t>
-  </si>
-  <si>
-    <t>52,67%</t>
-  </si>
-  <si>
-    <t>47,85%</t>
-  </si>
-  <si>
-    <t>41,35%</t>
-  </si>
-  <si>
-    <t>53,94%</t>
-  </si>
-  <si>
-    <t>47,21%</t>
-  </si>
-  <si>
-    <t>42,99%</t>
-  </si>
-  <si>
-    <t>51,42%</t>
-  </si>
-  <si>
-    <t>53,37%</t>
-  </si>
-  <si>
-    <t>47,33%</t>
-  </si>
-  <si>
-    <t>59,5%</t>
-  </si>
-  <si>
-    <t>52,15%</t>
-  </si>
-  <si>
-    <t>46,06%</t>
-  </si>
-  <si>
-    <t>58,65%</t>
-  </si>
-  <si>
-    <t>52,79%</t>
-  </si>
-  <si>
-    <t>48,58%</t>
-  </si>
-  <si>
-    <t>57,01%</t>
+    <t>47,97%</t>
+  </si>
+  <si>
+    <t>41,1%</t>
+  </si>
+  <si>
+    <t>54,42%</t>
+  </si>
+  <si>
+    <t>47,57%</t>
+  </si>
+  <si>
+    <t>41,04%</t>
+  </si>
+  <si>
+    <t>53,93%</t>
+  </si>
+  <si>
+    <t>47,76%</t>
+  </si>
+  <si>
+    <t>42,93%</t>
+  </si>
+  <si>
+    <t>52,61%</t>
+  </si>
+  <si>
+    <t>52,03%</t>
+  </si>
+  <si>
+    <t>45,58%</t>
+  </si>
+  <si>
+    <t>58,9%</t>
+  </si>
+  <si>
+    <t>52,43%</t>
+  </si>
+  <si>
+    <t>46,07%</t>
+  </si>
+  <si>
+    <t>58,96%</t>
+  </si>
+  <si>
+    <t>52,24%</t>
+  </si>
+  <si>
+    <t>47,39%</t>
+  </si>
+  <si>
+    <t>57,07%</t>
   </si>
   <si>
     <t>8-11</t>
   </si>
   <si>
+    <t>50,73%</t>
+  </si>
+  <si>
+    <t>43,12%</t>
+  </si>
+  <si>
+    <t>57,08%</t>
+  </si>
+  <si>
+    <t>53,28%</t>
+  </si>
+  <si>
+    <t>46,94%</t>
+  </si>
+  <si>
+    <t>59,76%</t>
+  </si>
+  <si>
+    <t>52,14%</t>
+  </si>
+  <si>
+    <t>47,31%</t>
+  </si>
+  <si>
+    <t>56,92%</t>
+  </si>
+  <si>
+    <t>49,27%</t>
+  </si>
+  <si>
+    <t>42,92%</t>
+  </si>
+  <si>
+    <t>56,88%</t>
+  </si>
+  <si>
+    <t>46,72%</t>
+  </si>
+  <si>
+    <t>40,24%</t>
+  </si>
+  <si>
+    <t>53,06%</t>
+  </si>
+  <si>
+    <t>47,86%</t>
+  </si>
+  <si>
+    <t>43,08%</t>
+  </si>
+  <si>
+    <t>52,69%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>48,99%</t>
+  </si>
+  <si>
+    <t>43,17%</t>
+  </si>
+  <si>
+    <t>54,79%</t>
+  </si>
+  <si>
     <t>52,1%</t>
   </si>
   <si>
-    <t>45,41%</t>
-  </si>
-  <si>
-    <t>58,39%</t>
-  </si>
-  <si>
-    <t>50,74%</t>
-  </si>
-  <si>
-    <t>44,25%</t>
-  </si>
-  <si>
-    <t>57,67%</t>
-  </si>
-  <si>
-    <t>51,47%</t>
-  </si>
-  <si>
-    <t>46,98%</t>
-  </si>
-  <si>
-    <t>55,76%</t>
+    <t>45,39%</t>
+  </si>
+  <si>
+    <t>59,87%</t>
+  </si>
+  <si>
+    <t>50,71%</t>
+  </si>
+  <si>
+    <t>45,69%</t>
+  </si>
+  <si>
+    <t>56,02%</t>
+  </si>
+  <si>
+    <t>51,01%</t>
+  </si>
+  <si>
+    <t>45,21%</t>
+  </si>
+  <si>
+    <t>56,83%</t>
   </si>
   <si>
     <t>47,9%</t>
   </si>
   <si>
-    <t>41,61%</t>
-  </si>
-  <si>
-    <t>54,59%</t>
-  </si>
-  <si>
-    <t>49,26%</t>
-  </si>
-  <si>
-    <t>42,33%</t>
-  </si>
-  <si>
-    <t>55,75%</t>
-  </si>
-  <si>
-    <t>48,53%</t>
-  </si>
-  <si>
-    <t>44,24%</t>
-  </si>
-  <si>
-    <t>53,02%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>52,04%</t>
-  </si>
-  <si>
-    <t>46,18%</t>
-  </si>
-  <si>
-    <t>58,95%</t>
-  </si>
-  <si>
-    <t>47,73%</t>
-  </si>
-  <si>
-    <t>42,06%</t>
-  </si>
-  <si>
-    <t>53,3%</t>
-  </si>
-  <si>
-    <t>50,05%</t>
-  </si>
-  <si>
-    <t>45,95%</t>
-  </si>
-  <si>
-    <t>54,62%</t>
-  </si>
-  <si>
-    <t>47,96%</t>
-  </si>
-  <si>
-    <t>41,05%</t>
-  </si>
-  <si>
-    <t>53,82%</t>
-  </si>
-  <si>
-    <t>52,27%</t>
-  </si>
-  <si>
-    <t>46,7%</t>
-  </si>
-  <si>
-    <t>57,94%</t>
-  </si>
-  <si>
-    <t>49,95%</t>
-  </si>
-  <si>
-    <t>45,38%</t>
-  </si>
-  <si>
-    <t>54,05%</t>
+    <t>40,13%</t>
+  </si>
+  <si>
+    <t>54,61%</t>
+  </si>
+  <si>
+    <t>49,29%</t>
+  </si>
+  <si>
+    <t>43,98%</t>
+  </si>
+  <si>
+    <t>54,31%</t>
+  </si>
+  <si>
+    <t>49,64%</t>
+  </si>
+  <si>
+    <t>45,94%</t>
+  </si>
+  <si>
+    <t>53,39%</t>
+  </si>
+  <si>
+    <t>50,89%</t>
+  </si>
+  <si>
+    <t>47,13%</t>
+  </si>
+  <si>
+    <t>54,86%</t>
   </si>
   <si>
     <t>50,32%</t>
   </si>
   <si>
-    <t>46,83%</t>
-  </si>
-  <si>
-    <t>53,97%</t>
-  </si>
-  <si>
-    <t>49,12%</t>
-  </si>
-  <si>
-    <t>45,64%</t>
-  </si>
-  <si>
-    <t>52,24%</t>
-  </si>
-  <si>
-    <t>49,76%</t>
-  </si>
-  <si>
-    <t>47,38%</t>
-  </si>
-  <si>
-    <t>52,19%</t>
+    <t>47,7%</t>
+  </si>
+  <si>
+    <t>52,83%</t>
+  </si>
+  <si>
+    <t>50,36%</t>
+  </si>
+  <si>
+    <t>46,61%</t>
+  </si>
+  <si>
+    <t>54,06%</t>
+  </si>
+  <si>
+    <t>49,11%</t>
+  </si>
+  <si>
+    <t>45,14%</t>
+  </si>
+  <si>
+    <t>52,87%</t>
   </si>
   <si>
     <t>49,68%</t>
   </si>
   <si>
-    <t>46,03%</t>
-  </si>
-  <si>
-    <t>53,17%</t>
-  </si>
-  <si>
-    <t>50,88%</t>
-  </si>
-  <si>
-    <t>47,76%</t>
-  </si>
-  <si>
-    <t>54,36%</t>
-  </si>
-  <si>
-    <t>50,24%</t>
-  </si>
-  <si>
-    <t>47,81%</t>
-  </si>
-  <si>
-    <t>52,62%</t>
+    <t>47,17%</t>
+  </si>
+  <si>
+    <t>52,3%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -768,7 +768,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{887C1E17-99CD-40AF-884E-385F386FECE4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35CCF62C-416C-41C8-9D9B-3A6F9548A8D1}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -886,10 +886,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="D4" s="7">
-        <v>19901</v>
+        <v>25714</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -901,10 +901,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="I4" s="7">
-        <v>25585</v>
+        <v>20543</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -919,7 +919,7 @@
         <v>83</v>
       </c>
       <c r="N4" s="7">
-        <v>45486</v>
+        <v>46257</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -937,10 +937,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D5" s="7">
-        <v>23697</v>
+        <v>21296</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -952,10 +952,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="I5" s="7">
-        <v>21241</v>
+        <v>25179</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -970,7 +970,7 @@
         <v>84</v>
       </c>
       <c r="N5" s="7">
-        <v>44938</v>
+        <v>46475</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -988,25 +988,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>85</v>
+      </c>
+      <c r="D6" s="7">
+        <v>47010</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
         <v>82</v>
       </c>
-      <c r="D6" s="7">
-        <v>43598</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="7">
-        <v>85</v>
-      </c>
       <c r="I6" s="7">
-        <v>46826</v>
+        <v>45722</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1021,7 +1021,7 @@
         <v>167</v>
       </c>
       <c r="N6" s="7">
-        <v>90424</v>
+        <v>92732</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1041,10 +1041,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D7" s="7">
-        <v>81057</v>
+        <v>76213</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1056,10 +1056,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="I7" s="7">
-        <v>75774</v>
+        <v>86133</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1074,7 +1074,7 @@
         <v>247</v>
       </c>
       <c r="N7" s="7">
-        <v>156832</v>
+        <v>162347</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1092,10 +1092,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="D8" s="7">
-        <v>92776</v>
+        <v>82670</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1107,10 +1107,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="I8" s="7">
-        <v>82572</v>
+        <v>94915</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1125,7 +1125,7 @@
         <v>283</v>
       </c>
       <c r="N8" s="7">
-        <v>175348</v>
+        <v>177584</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1143,25 +1143,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>257</v>
+      </c>
+      <c r="D9" s="7">
+        <v>158883</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
         <v>273</v>
       </c>
-      <c r="D9" s="7">
-        <v>173833</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="7">
-        <v>257</v>
-      </c>
       <c r="I9" s="7">
-        <v>158346</v>
+        <v>181048</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1176,7 +1176,7 @@
         <v>530</v>
       </c>
       <c r="N9" s="7">
-        <v>332180</v>
+        <v>339931</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1196,10 +1196,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="D10" s="7">
-        <v>105485</v>
+        <v>87016</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1211,10 +1211,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="I10" s="7">
-        <v>88568</v>
+        <v>113215</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1229,7 +1229,7 @@
         <v>254</v>
       </c>
       <c r="N10" s="7">
-        <v>194053</v>
+        <v>200231</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1250,7 +1250,7 @@
         <v>110</v>
       </c>
       <c r="D11" s="7">
-        <v>96993</v>
+        <v>84512</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1265,7 +1265,7 @@
         <v>110</v>
       </c>
       <c r="I11" s="7">
-        <v>85972</v>
+        <v>99275</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -1280,7 +1280,7 @@
         <v>220</v>
       </c>
       <c r="N11" s="7">
-        <v>182965</v>
+        <v>183787</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -1298,25 +1298,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>231</v>
+      </c>
+      <c r="D12" s="7">
+        <v>171528</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
         <v>243</v>
       </c>
-      <c r="D12" s="7">
-        <v>202478</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="7">
-        <v>231</v>
-      </c>
       <c r="I12" s="7">
-        <v>174540</v>
+        <v>212490</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1331,7 +1331,7 @@
         <v>474</v>
       </c>
       <c r="N12" s="7">
-        <v>377018</v>
+        <v>384018</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1351,10 +1351,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>178</v>
+        <v>161</v>
       </c>
       <c r="D13" s="7">
-        <v>147704</v>
+        <v>118129</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -1366,10 +1366,10 @@
         <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>161</v>
+        <v>178</v>
       </c>
       <c r="I13" s="7">
-        <v>116323</v>
+        <v>156190</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
@@ -1384,7 +1384,7 @@
         <v>339</v>
       </c>
       <c r="N13" s="7">
-        <v>264028</v>
+        <v>274319</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>76</v>
@@ -1402,10 +1402,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>156</v>
+        <v>172</v>
       </c>
       <c r="D14" s="7">
-        <v>136141</v>
+        <v>123015</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>79</v>
@@ -1417,10 +1417,10 @@
         <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>172</v>
+        <v>156</v>
       </c>
       <c r="I14" s="7">
-        <v>127390</v>
+        <v>143594</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>82</v>
@@ -1435,7 +1435,7 @@
         <v>328</v>
       </c>
       <c r="N14" s="7">
-        <v>263530</v>
+        <v>266609</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>85</v>
@@ -1453,25 +1453,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>333</v>
+      </c>
+      <c r="D15" s="7">
+        <v>241144</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
         <v>334</v>
       </c>
-      <c r="D15" s="7">
-        <v>283845</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
-        <v>333</v>
-      </c>
       <c r="I15" s="7">
-        <v>243713</v>
+        <v>299784</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1486,7 +1486,7 @@
         <v>667</v>
       </c>
       <c r="N15" s="7">
-        <v>527558</v>
+        <v>540928</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1506,10 +1506,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>475</v>
+        <v>448</v>
       </c>
       <c r="D16" s="7">
-        <v>354147</v>
+        <v>307072</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>88</v>
@@ -1521,10 +1521,10 @@
         <v>90</v>
       </c>
       <c r="H16" s="7">
-        <v>448</v>
+        <v>475</v>
       </c>
       <c r="I16" s="7">
-        <v>306252</v>
+        <v>376082</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>91</v>
@@ -1539,7 +1539,7 @@
         <v>923</v>
       </c>
       <c r="N16" s="7">
-        <v>660399</v>
+        <v>683154</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>94</v>
@@ -1557,10 +1557,10 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="D17" s="7">
-        <v>349607</v>
+        <v>311493</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>97</v>
@@ -1572,10 +1572,10 @@
         <v>99</v>
       </c>
       <c r="H17" s="7">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="I17" s="7">
-        <v>317174</v>
+        <v>362962</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>100</v>
@@ -1590,7 +1590,7 @@
         <v>915</v>
       </c>
       <c r="N17" s="7">
-        <v>666781</v>
+        <v>674455</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>103</v>
@@ -1608,25 +1608,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>906</v>
+      </c>
+      <c r="D18" s="7">
+        <v>618565</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>932</v>
       </c>
-      <c r="D18" s="7">
-        <v>703754</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H18" s="7">
-        <v>906</v>
-      </c>
       <c r="I18" s="7">
-        <v>623426</v>
+        <v>739044</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -1641,7 +1641,7 @@
         <v>1838</v>
       </c>
       <c r="N18" s="7">
-        <v>1327180</v>
+        <v>1357609</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
